--- a/00_mamagement/反復計画書.xlsx
+++ b/00_mamagement/反復計画書.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{9DD7FA13-FF73-45EE-8BA8-49A0E899101B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B8C2D9A-79CD-40D3-82F0-EEDA5562547B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A0AF5-0022-48C7-9331-B7A901E663BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="240" windowWidth="15615" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
     <sheet name="サンプル" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -38,13 +36,7 @@
     <t>1.チケット予約システム</t>
   </si>
   <si>
-    <t>・基本システム＋データベース管理ができる</t>
-  </si>
-  <si>
     <t>2.新規システム開発</t>
-  </si>
-  <si>
-    <t>・会議室予約システム</t>
   </si>
   <si>
     <t>計画</t>
@@ -103,40 +95,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.5日間</t>
-  </si>
-  <si>
     <t>反復の終了判断基準</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケット情報を表示できる
-予約情報を予約できる</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUIへの拡張
-会員、チケット、予約をデータベースで管理できるようにする
-会員、チケットの管理（登録・削除・更新）をできるようにする。</t>
-  </si>
-  <si>
-    <t>新規システム開発
-（会議室予約システム）</t>
   </si>
   <si>
     <t>成果物</t>
@@ -194,9 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第一反復中に変更予定あり</t>
-  </si>
-  <si>
     <t>実績</t>
     <rPh sb="0" eb="2">
       <t>ジッセキ</t>
@@ -507,6 +464,94 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マインスイーパ
+GUIでプレイできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット予約システム
+チケット情報を表示できる
+予約情報を予約できる</t>
+    <rPh sb="4" eb="6">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4日間</t>
+    <rPh sb="1" eb="3">
+      <t>ニチカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マインスイーパ
+機能拡張
+（レベル調整、タイム測定）</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一反復後に変更した。</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5日間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(更新)
+要求仕様書(更新)
+システム分析書(更新)
+設計仕様書(更新)
+テスト計画書(更新)
+テスト済のソースコード(更新)
+開発体験シート
+KPTによる振り返り結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　基本システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　マインスイーパ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1038,7 +1083,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1361,10 +1406,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1373,7 +1418,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1384,178 +1429,184 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="38">
         <v>43984</v>
       </c>
       <c r="D6" s="38">
-        <v>43987</v>
+        <v>43990</v>
       </c>
       <c r="E6" s="39">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="38">
         <v>43986</v>
       </c>
       <c r="D7" s="38">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="E7" s="39">
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="156.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="38">
+        <v>43984</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="38">
+        <v>43987</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="144" customHeight="1">
+    <row r="15" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1581,7 +1632,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1590,61 +1641,61 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="31">
         <v>44015</v>
@@ -1656,10 +1707,10 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="31">
         <v>44020</v>
@@ -1671,102 +1722,102 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1794,6 +1845,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1977,20 +2034,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A82B574-451D-4B17-8A2E-BDD191C5358F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A82B574-451D-4B17-8A2E-BDD191C5358F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/反復計画書.xlsx
+++ b/00_mamagement/反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A0AF5-0022-48C7-9331-B7A901E663BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BA160-E4CD-415D-B14F-9D30CD336243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -136,17 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復計画書(更新)
-WBS&amp;ガントチャート(更新)
-要求仕様書(更新)
-システム分析書(更新)
-設計仕様書(更新)
-テスト計画書(更新)
-テスト済のソースコード(更新)
-開発体験シート
-KPTによる振り返り結果</t>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -550,6 +539,21 @@
   </si>
   <si>
     <t>　マインスイーパ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(更新)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+開発体験シート
+KPTによる振り返り結果</t>
+    <rPh sb="32" eb="36">
+      <t>シンキサクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1432,7 +1436,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1450,7 +1454,7 @@
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1510,10 +1514,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1522,13 +1526,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1540,26 +1544,28 @@
         <v>13</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>7</v>
@@ -1587,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
@@ -1606,7 +1612,7 @@
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1655,7 +1661,7 @@
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1664,7 +1670,7 @@
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1728,13 +1734,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1743,13 +1749,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1758,19 +1764,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>7</v>
@@ -1817,7 +1823,7 @@
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1845,12 +1851,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2034,6 +2034,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -2043,15 +2049,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A82B574-451D-4B17-8A2E-BDD191C5358F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2067,4 +2064,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/反復計画書.xlsx
+++ b/00_mamagement/反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327BA160-E4CD-415D-B14F-9D30CD336243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC65CBE-2423-482E-9B50-00235C5BB573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="285" windowWidth="20160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -105,33 +105,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書(新規作成)
-WBS&amp;ガントチャート(新規作成)
-要求仕様書(新規作成)
-システム分析書(新規作成)
-設計仕様書(新規作成)
-テスト計画書(新規作成)
-テスト済のソースコード(新規作成)
-開発体験シート
-KPTによる振り返り結果</t>
-    <rPh sb="99" eb="101">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>タイケン</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,24 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マインスイーパ
-機能拡張
-（レベル調整、タイム測定）</t>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ソクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第一反復後に変更した。</t>
     <rPh sb="4" eb="5">
       <t>ゴ</t>
@@ -522,8 +477,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>　基本システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　マインスイーパ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マインスイーパ
+機能拡張
+（難易度調整、タイム測定
+スタート画面、地雷と旗の数）</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジライ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハタ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(新規作成)
+WBS&amp;ガントチャート(新規作成)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+開発体験シート(新規作成)
+KPTによる振り返り結果</t>
+    <rPh sb="99" eb="101">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>反復計画書(更新)
 WBS&amp;ガントチャート(更新)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+開発体験シート(更新)
+KPTによる振り返り結果</t>
+    <rPh sb="32" eb="36">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(新規作成)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+開発体験シート(更新)
+KPTによる振り返り結果</t>
+    <rPh sb="22" eb="24">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(新規作成)
 要求仕様書(更新)
 システム分析書(更新)
 設計仕様書(更新)
@@ -531,28 +600,11 @@
 テスト済のソースコード(更新)
 開発体験シート
 KPTによる振り返り結果</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　基本システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　マインスイーパ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書(更新)
-WBS&amp;ガントチャート(更新)
-要求仕様書(新規作成)
-システム分析書(新規作成)
-設計仕様書(新規作成)
-テスト計画書(新規作成)
-テスト済のソースコード(新規作成)
-開発体験シート
-KPTによる振り返り結果</t>
-    <rPh sb="32" eb="36">
-      <t>シンキサクセイ</t>
+    <rPh sb="22" eb="24">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,6 +1120,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1436,7 +1494,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1454,7 +1512,7 @@
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1514,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1526,13 +1584,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1541,31 +1599,31 @@
         <v>12</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>7</v>
@@ -1573,7 +1631,9 @@
       <c r="C12" s="38">
         <v>43984</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="44">
+        <v>43990</v>
+      </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1584,7 +1644,9 @@
       <c r="C13" s="38">
         <v>43987</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="38">
+        <v>43993</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1593,9 +1655,11 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.15">
@@ -1604,15 +1668,17 @@
         <v>12</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1652,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1661,7 +1727,7 @@
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1670,7 +1736,7 @@
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1734,13 +1800,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1749,13 +1815,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1764,19 +1830,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1784,7 +1850,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>7</v>
@@ -1823,7 +1889,7 @@
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1851,6 +1917,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2034,12 +2106,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -2049,6 +2115,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A82B574-451D-4B17-8A2E-BDD191C5358F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2064,13 +2139,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>